--- a/로스트아크 역분석/스탯기획서.xlsx
+++ b/로스트아크 역분석/스탯기획서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\로스트아크 역분석\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han75\Documents\GitHub\smallprecious\로스트아크 역분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB7C2D3-947E-4125-AD24-146B28AD965D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F08148-DF75-4B4D-A767-FCFA3F870BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16035" yWindow="6315" windowWidth="27870" windowHeight="15570" activeTab="6" xr2:uid="{F22FC9CC-25BA-4C83-A649-1754BF717992}"/>
+    <workbookView xWindow="12010" yWindow="4780" windowWidth="14400" windowHeight="7360" firstSheet="2" activeTab="3" xr2:uid="{F22FC9CC-25BA-4C83-A649-1754BF717992}"/>
   </bookViews>
   <sheets>
     <sheet name="버전관리" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="활동" sheetId="5" r:id="rId5"/>
     <sheet name="기본 특성" sheetId="6" r:id="rId6"/>
     <sheet name="전투 특성" sheetId="7" r:id="rId7"/>
+    <sheet name="스탯테이블" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>로스트아크의 특징</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,10 +300,6 @@
   </si>
   <si>
     <t>치명타 피해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물리 피해 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -336,10 +333,6 @@
   </si>
   <si>
     <t>방어 관통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>획득방법</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -396,10 +389,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장비(방어구와 장신구 옵션), 퀘스트보상(능력치 영구 증가 물약), 아바타(아바타 옵션)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">스킬이 적중하기까지 긴 시간이 필요한 클래스들의 경우 최소한의 공격속도를 확보해야 보다 원활한 플레이가 가능하다.
 로아에는 하나의 장비나 각인에 공격속도와 데미지를 둘다 상승시키는 경우가 없게 짜여져 있는데, 공격속도옵션과 데미지 관련 옵션을 철저하게 분리함으로써, 공격속도 스탯을 위해서는 반드시 데미지를 상승시키는 스탯을 일부 포기해야하는 형태로짜여져있어 선택의 중요성을 두르러지게 하고있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -473,14 +462,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제압특성, 스킬효과, 카드효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제압특성, 카드효과</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카드효과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +471,106 @@
   </si>
   <si>
     <t xml:space="preserve">적에게 가하는 무력화 피해를 상승시킨다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 계산 과정에서 일정 비율로 방어력을 깎아내는 스탯은 방어력이 높아지면 높아질수록 적은 수치만으로도 강력한 퍼포먼스를 보여주기 때문에 로아처럼 라이브 서비스를 하면서 지속적으로 컨텐츠를 업데이트하는 게임의 경우 수치의 인플레이션을 막을 수 없기 때문에 그 조절에 있어 굉장히 조심해야하는 스탯임에 틀림없다. 그렇기 때문에, 방어력 관통 효과를 부여할 때에는 항상 조심스럽게 접근해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분의 보스급 적들은 피격이상과 상태이상에 면역효과를 가지게 만들어 pve보다는 pvp에서 한정적으로 효과를 볼 수 있는 스탯으로 설계하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 상태는 pve에서 보스급 이상의 적들만 가지는 상태이다. Pve상황에서 보스급 적을 상대할 때, 무력화시 주는 피해가 증가하는 스탯을 설계하여 무력화 데미지가 높은 스킬들의 가치를 높이고 각종 버프효과 등을 전략적으로 활용할 여지를 만든다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 계열의 적을 상대할 때, 아무런 조건도 없이 데미지를 상승시켜주는 옵션이므로 해당 스탯을 부여할때 주의가 필요하다. 실제 게임속에서는 카드수집효과의 보상으로 총 상승치가 1~2% 정도로 미비한 수준이기 때문에 '없어도 그만이지만 있으면 좋은 정도'로 도전의 영역에 있는 수집 컨텐츠의 보상으로써 적절하게 활용되고있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙련특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pve보다는 pvp에서 두각을 나타내는 스탯이다. 상태이상의 지속시간을 늘려 pvp상황에서 상태이상에 빠진 적을 상대로 더 길게 콤보를 이어나갈 수 있도록 설계되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단시간 동안 일정 수ㅊ이상의 누적 무력화 데미지를 요구하는 기믹에 조금 더 유연하게 대처하거나 대상을 조금 더 자주 무력화 상태로 만들어 무력화 대상 피해량 증가 스탯과 시너지를 일으키도록 설계하였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명력 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스별로 단위 체력당 일정수준의 최대 생명력을 상승시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정수형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요획득처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제압특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비(방어구와 장신구 옵션), 아바타(아바타 옵션)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마나 회복량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성명_한글(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비아이템(방어구, 장신구)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 최대 생명력을 올려주지 않고 체력이라는 중간 단계를 거치게 하면서 아이템에 표시되는 단위를 간소화하고 클래스별 체력 계수를 다르게 설계하여 각 클래스별 특징과 개성을 두드러지게 만들기 위해 이렇게 설계되었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 스탯당 최대 생명력을 %로 증가시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어구 아이템(품질)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유물 방어구 아이템의 품질에 비례해 상승한다. 무기의 추가피해와 마찬가지로 품질이 높을수록 상승폭이 커지며 품질업그레이드 확률이 비약적으로 낮아지기 때문에 지속적인 하수구 컨텐츠로써 기획되었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -926,14 +1007,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.75" customWidth="1"/>
     <col min="4" max="4" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>56</v>
       </c>
@@ -944,7 +1025,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -955,9 +1036,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C4" s="1">
         <v>44427</v>
@@ -977,14 +1058,14 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -992,12 +1073,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1005,27 +1086,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -1033,12 +1114,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1058,12 +1139,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B21" t="s">
         <v>23</v>
       </c>
@@ -1103,7 +1184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -1111,12 +1192,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B23" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>32</v>
       </c>
@@ -1136,7 +1217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B25" t="s">
         <v>38</v>
       </c>
@@ -1156,17 +1237,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>46</v>
       </c>
@@ -1186,7 +1267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B29" t="s">
         <v>52</v>
       </c>
@@ -1207,445 +1288,469 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80DE7FF-7866-4BE2-9CF7-75F7A76A74EC}">
   <dimension ref="B2:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="B52" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="119.125" customWidth="1"/>
+    <col min="2" max="3" width="16.58203125" customWidth="1"/>
+    <col min="4" max="4" width="119.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="101.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2" t="s">
+    <row r="13" spans="2:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="125.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" ht="77.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C16" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="66.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C17" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C23" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C24" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="76.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C25" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C28" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C32" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="51" x14ac:dyDescent="0.45">
       <c r="C33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B34" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C36" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="C37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B38" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C40" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="C41" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C44" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B46" t="s">
         <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="33" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B50" t="s">
         <v>30</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-      <c r="D51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C53" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="D53" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1658,77 +1763,269 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFB68DB-46F5-4B68-B9C0-1E554A8837FF}">
-  <dimension ref="B2:B14"/>
+  <dimension ref="B2:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="34" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="C16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="C22" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
+      <c r="C30" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+      <c r="C34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="C41" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1739,56 +2036,51 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1B3B8F-00E0-4656-BE56-7841AD7D6197}">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B30" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1804,7 +2096,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1815,13 +2107,66 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5B64FF-D159-44E9-B98B-335FFF73D3D9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5434FA-694F-4304-8F83-41AC0EFEFCEF}">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>